--- a/app/data/keywords.xlsx
+++ b/app/data/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC53FC19-F339-45FD-8B23-68CC702EA947}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064D16C0-6E54-4A83-80DE-0BB4ADD31ED6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterKey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="1514">
   <si>
     <t>Training Types</t>
   </si>
@@ -4543,6 +4543,39 @@
   </si>
   <si>
     <t>Maintenance and Operations - Planning</t>
+  </si>
+  <si>
+    <t>HCATS_SB_1</t>
+  </si>
+  <si>
+    <t>HCATS_SB_2</t>
+  </si>
+  <si>
+    <t>OASIS_SB_1</t>
+  </si>
+  <si>
+    <t>OASIS_SB_2</t>
+  </si>
+  <si>
+    <t>OASIS_SB_3</t>
+  </si>
+  <si>
+    <t>OASIS_SB_4</t>
+  </si>
+  <si>
+    <t>OASIS_5A</t>
+  </si>
+  <si>
+    <t>OASIS_SB_5A</t>
+  </si>
+  <si>
+    <t>OASIS_5B</t>
+  </si>
+  <si>
+    <t>OASIS_SB_5B</t>
+  </si>
+  <si>
+    <t>OASIS_SB_6</t>
   </si>
 </sst>
 </file>
@@ -4735,7 +4768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4927,12 +4960,134 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5323,10 +5478,10 @@
   <dimension ref="A1:CA1080"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1064" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H1040" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1079" sqref="F1079"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5341,98 +5496,98 @@
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:79" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="94" t="s">
         <v>1115</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="94" t="s">
         <v>724</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="94" t="s">
         <v>725</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="94" t="s">
         <v>1140</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="94" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J1" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="94" t="s">
+        <v>1504</v>
+      </c>
+      <c r="L1" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="94" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N1" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="94" t="s">
+        <v>1506</v>
+      </c>
+      <c r="P1" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="R1" s="8" t="s">
+      <c r="Q1" s="94" t="s">
+        <v>1507</v>
+      </c>
+      <c r="R1" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="X1" s="8" t="s">
+      <c r="S1" s="94" t="s">
+        <v>1508</v>
+      </c>
+      <c r="T1" s="94" t="s">
+        <v>1509</v>
+      </c>
+      <c r="U1" s="94" t="s">
+        <v>1510</v>
+      </c>
+      <c r="V1" s="94" t="s">
+        <v>1511</v>
+      </c>
+      <c r="W1" s="94" t="s">
+        <v>1512</v>
+      </c>
+      <c r="X1" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="8" t="s">
-        <v>127</v>
+      <c r="Y1" s="94" t="s">
+        <v>1513</v>
       </c>
       <c r="Z1" s="84" t="s">
         <v>1243</v>
@@ -5455,10 +5610,10 @@
       <c r="AF1" s="84" t="s">
         <v>1249</v>
       </c>
-      <c r="AG1">
+      <c r="AG1" s="72">
         <v>736</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="72">
         <v>738</v>
       </c>
       <c r="AI1" s="84" t="s">
@@ -5563,37 +5718,37 @@
       <c r="BP1" s="84" t="s">
         <v>1242</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BQ1" s="93" t="s">
         <v>1421</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BR1" s="93" t="s">
         <v>1422</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BS1" s="93" t="s">
         <v>1423</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BT1" s="93" t="s">
         <v>1424</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BU1" s="93" t="s">
         <v>1425</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BV1" s="93" t="s">
         <v>1426</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BW1" s="93" t="s">
         <v>1427</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BX1" s="93" t="s">
         <v>1428</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BY1" s="93" t="s">
         <v>1429</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="BZ1" s="93" t="s">
         <v>1430</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CA1" s="93" t="s">
         <v>1431</v>
       </c>
     </row>
@@ -35644,20 +35799,32 @@
   <sortState ref="A2:BP29">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="A817:A878 A912:A1068 A1:A464 A1081:A1048576 A503:A664">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="A817:A878 A912:A1068 A2:A464 A1081:A1048576 A503:A664">
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A912:A1068 A1081:A1048576 A1:A878">
+  <conditionalFormatting sqref="A912:A1068 A1081:A1048576 A2:A878">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1017:A1034">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A792">
+    <cfRule type="duplicateValues" dxfId="13" priority="2012"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A784 A799:A878">
+    <cfRule type="duplicateValues" dxfId="12" priority="2108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1017:A1034">
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A792">
-    <cfRule type="duplicateValues" dxfId="1" priority="2008"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A784 A799:A878">
-    <cfRule type="duplicateValues" dxfId="0" priority="2104"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/data/keywords.xlsx
+++ b/app/data/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954BE24-6D0D-40C4-94D0-76781CBD5597}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22982E-AFD9-4B02-A4A8-F4F553A560DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterKey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5905" uniqueCount="1473">
   <si>
     <t>Training Types</t>
   </si>
@@ -3853,12 +3853,6 @@
   </si>
   <si>
     <t>Cemetary Maintenance Operations</t>
-  </si>
-  <si>
-    <t>Tree Removal</t>
-  </si>
-  <si>
-    <t>Tree Surgery</t>
   </si>
   <si>
     <t>U013</t>
@@ -5278,13 +5272,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BY1039"/>
+  <dimension ref="A1:BY1037"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U867" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B982" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A883" sqref="A883"/>
+      <selection pane="bottomRight" activeCell="A1002" sqref="A1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5342,55 +5336,55 @@
         <v>114</v>
       </c>
       <c r="I1" s="94" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="J1" s="94" t="s">
         <v>116</v>
       </c>
       <c r="K1" s="94" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="L1" s="94" t="s">
         <v>118</v>
       </c>
       <c r="M1" s="94" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="N1" s="94" t="s">
         <v>120</v>
       </c>
       <c r="O1" s="94" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="P1" s="94" t="s">
         <v>122</v>
       </c>
       <c r="Q1" s="94" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="R1" s="94" t="s">
         <v>124</v>
       </c>
       <c r="S1" s="94" t="s">
+        <v>1467</v>
+      </c>
+      <c r="T1" s="94" t="s">
+        <v>1468</v>
+      </c>
+      <c r="U1" s="94" t="s">
         <v>1469</v>
       </c>
-      <c r="T1" s="94" t="s">
+      <c r="V1" s="94" t="s">
         <v>1470</v>
       </c>
-      <c r="U1" s="94" t="s">
+      <c r="W1" s="94" t="s">
         <v>1471</v>
-      </c>
-      <c r="V1" s="94" t="s">
-        <v>1472</v>
-      </c>
-      <c r="W1" s="94" t="s">
-        <v>1473</v>
       </c>
       <c r="X1" s="94" t="s">
         <v>126</v>
       </c>
       <c r="Y1" s="94" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="Z1" s="84" t="s">
         <v>1204</v>
@@ -5516,42 +5510,42 @@
         <v>1203</v>
       </c>
       <c r="BO1" s="93" t="s">
+        <v>1380</v>
+      </c>
+      <c r="BP1" s="93" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BQ1" s="93" t="s">
         <v>1382</v>
       </c>
-      <c r="BP1" s="93" t="s">
+      <c r="BR1" s="93" t="s">
         <v>1383</v>
       </c>
-      <c r="BQ1" s="93" t="s">
+      <c r="BS1" s="93" t="s">
         <v>1384</v>
       </c>
-      <c r="BR1" s="93" t="s">
+      <c r="BT1" s="93" t="s">
         <v>1385</v>
       </c>
-      <c r="BS1" s="93" t="s">
+      <c r="BU1" s="93" t="s">
         <v>1386</v>
       </c>
-      <c r="BT1" s="93" t="s">
+      <c r="BV1" s="93" t="s">
         <v>1387</v>
       </c>
-      <c r="BU1" s="93" t="s">
+      <c r="BW1" s="93" t="s">
         <v>1388</v>
       </c>
-      <c r="BV1" s="93" t="s">
+      <c r="BX1" s="93" t="s">
         <v>1389</v>
       </c>
-      <c r="BW1" s="93" t="s">
+      <c r="BY1" s="93" t="s">
         <v>1390</v>
-      </c>
-      <c r="BX1" s="93" t="s">
-        <v>1391</v>
-      </c>
-      <c r="BY1" s="93" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -5561,7 +5555,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F2">
         <v>611699</v>
@@ -5629,7 +5623,7 @@
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -5664,7 +5658,7 @@
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -5674,7 +5668,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F5">
         <v>611430</v>
@@ -5705,7 +5699,7 @@
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5715,7 +5709,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F6">
         <v>611430</v>
@@ -5743,7 +5737,7 @@
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -5753,7 +5747,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F7">
         <v>611430</v>
@@ -5778,7 +5772,7 @@
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -5816,7 +5810,7 @@
     </row>
     <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -5826,7 +5820,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F9">
         <v>611699</v>
@@ -5851,7 +5845,7 @@
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -5887,7 +5881,7 @@
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -5924,7 +5918,7 @@
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -5961,7 +5955,7 @@
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -6001,7 +5995,7 @@
     </row>
     <row r="14" spans="1:77" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -6041,7 +6035,7 @@
     </row>
     <row r="15" spans="1:77" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -6078,7 +6072,7 @@
     </row>
     <row r="16" spans="1:77" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -6118,7 +6112,7 @@
     </row>
     <row r="17" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -6155,7 +6149,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -6165,7 +6159,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F18">
         <v>611699</v>
@@ -6194,7 +6188,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -6237,7 +6231,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -6280,7 +6274,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -6290,7 +6284,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F21">
         <v>611699</v>
@@ -6318,7 +6312,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -6356,7 +6350,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -6400,7 +6394,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -6439,7 +6433,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -6560,7 +6554,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -6601,7 +6595,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -6642,7 +6636,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -6935,7 +6929,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B38" s="23">
         <v>2</v>
@@ -7003,7 +6997,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B40" s="23">
         <v>53</v>
@@ -7034,7 +7028,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B41" s="23">
         <v>54</v>
@@ -7044,7 +7038,7 @@
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="23" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F41">
         <v>611699</v>
@@ -7072,7 +7066,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F42">
         <v>611430</v>
@@ -7093,7 +7087,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -7103,7 +7097,7 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F43">
         <v>611430</v>
@@ -7134,7 +7128,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F44">
         <v>611430</v>
@@ -7165,7 +7159,7 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F45">
         <v>611430</v>
@@ -7196,7 +7190,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F46">
         <v>611430</v>
@@ -7217,7 +7211,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -7227,7 +7221,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F47">
         <v>611430</v>
@@ -7258,7 +7252,7 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F48">
         <v>611430</v>
@@ -7289,7 +7283,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F49">
         <v>611430</v>
@@ -7320,7 +7314,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F50">
         <v>611430</v>
@@ -7351,7 +7345,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F51">
         <v>611430</v>
@@ -7372,7 +7366,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -7382,7 +7376,7 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F52">
         <v>611430</v>
@@ -7413,7 +7407,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F53">
         <v>611430</v>
@@ -7444,7 +7438,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F54">
         <v>611430</v>
@@ -7475,7 +7469,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F55">
         <v>611430</v>
@@ -7506,7 +7500,7 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F56">
         <v>611430</v>
@@ -7537,7 +7531,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F57">
         <v>611430</v>
@@ -7568,7 +7562,7 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F58">
         <v>611430</v>
@@ -7589,7 +7583,7 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B59" s="1">
         <v>3</v>
@@ -7599,7 +7593,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F59">
         <v>611430</v>
@@ -7630,7 +7624,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F60">
         <v>611430</v>
@@ -7661,7 +7655,7 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F61">
         <v>611430</v>
@@ -7682,7 +7676,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B62" s="1">
         <v>4</v>
@@ -7692,7 +7686,7 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F62">
         <v>611430</v>
@@ -7713,7 +7707,7 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B63" s="1">
         <v>4</v>
@@ -7723,7 +7717,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F63">
         <v>611430</v>
@@ -7744,7 +7738,7 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B64" s="1">
         <v>4</v>
@@ -7754,7 +7748,7 @@
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F64">
         <v>611430</v>
@@ -7775,7 +7769,7 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B65" s="1">
         <v>4</v>
@@ -7785,7 +7779,7 @@
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F65">
         <v>611430</v>
@@ -7816,7 +7810,7 @@
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F66">
         <v>624310</v>
@@ -7844,7 +7838,7 @@
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F67">
         <v>624310</v>
@@ -7872,7 +7866,7 @@
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F68">
         <v>624310</v>
@@ -7900,7 +7894,7 @@
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F69">
         <v>624310</v>
@@ -7928,7 +7922,7 @@
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F70">
         <v>624310</v>
@@ -7956,7 +7950,7 @@
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F71">
         <v>624310</v>
@@ -7984,7 +7978,7 @@
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F72">
         <v>624310</v>
@@ -8012,7 +8006,7 @@
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F73">
         <v>624310</v>
@@ -8040,7 +8034,7 @@
       </c>
       <c r="D74" s="23"/>
       <c r="E74" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F74">
         <v>624310</v>
@@ -8068,7 +8062,7 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F75">
         <v>611430</v>
@@ -8089,7 +8083,7 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -8099,7 +8093,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F76">
         <v>611430</v>
@@ -8120,7 +8114,7 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -8130,7 +8124,7 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F77">
         <v>611430</v>
@@ -8151,7 +8145,7 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -8161,7 +8155,7 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F78">
         <v>611430</v>
@@ -8192,7 +8186,7 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F79">
         <v>611430</v>
@@ -8213,7 +8207,7 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -8223,7 +8217,7 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F80">
         <v>611430</v>
@@ -8254,7 +8248,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F81">
         <v>611430</v>
@@ -8275,7 +8269,7 @@
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B82" s="1">
         <v>6</v>
@@ -8285,7 +8279,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F82">
         <v>611430</v>
@@ -8306,7 +8300,7 @@
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B83" s="1">
         <v>6</v>
@@ -8316,7 +8310,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F83">
         <v>611430</v>
@@ -8337,7 +8331,7 @@
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B84" s="1">
         <v>6</v>
@@ -8347,7 +8341,7 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F84">
         <v>611430</v>
@@ -8368,7 +8362,7 @@
     </row>
     <row r="85" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B85" s="1">
         <v>6</v>
@@ -8378,7 +8372,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F85">
         <v>611430</v>
@@ -8409,7 +8403,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F86">
         <v>541612</v>
@@ -8437,7 +8431,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F87">
         <v>541612</v>
@@ -8465,7 +8459,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F88">
         <v>541612</v>
@@ -8493,7 +8487,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F89">
         <v>541612</v>
@@ -8521,7 +8515,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F90">
         <v>541612</v>
@@ -8549,7 +8543,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F91">
         <v>541612</v>
@@ -8577,7 +8571,7 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F92">
         <v>541612</v>
@@ -8605,7 +8599,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F93">
         <v>541612</v>
@@ -8633,7 +8627,7 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F94">
         <v>541611</v>
@@ -8670,7 +8664,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F95">
         <v>541611</v>
@@ -8707,7 +8701,7 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F96">
         <v>541611</v>
@@ -8744,7 +8738,7 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F97">
         <v>541611</v>
@@ -8771,7 +8765,7 @@
     </row>
     <row r="98" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B98" s="1">
         <v>8</v>
@@ -8781,7 +8775,7 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F98">
         <v>541611</v>
@@ -8818,7 +8812,7 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F99">
         <v>541611</v>
@@ -8855,7 +8849,7 @@
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F100">
         <v>541611</v>
@@ -8892,7 +8886,7 @@
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F101">
         <v>541611</v>
@@ -8929,7 +8923,7 @@
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F102">
         <v>541611</v>
@@ -8966,7 +8960,7 @@
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F103">
         <v>541611</v>
@@ -9003,7 +8997,7 @@
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F104">
         <v>541611</v>
@@ -9040,7 +9034,7 @@
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F105">
         <v>541611</v>
@@ -9077,7 +9071,7 @@
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F106">
         <v>541611</v>
@@ -9114,7 +9108,7 @@
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F107">
         <v>541611</v>
@@ -9151,7 +9145,7 @@
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F108">
         <v>541611</v>
@@ -9188,7 +9182,7 @@
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F109">
         <v>541611</v>
@@ -9225,7 +9219,7 @@
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F110">
         <v>541611</v>
@@ -9262,7 +9256,7 @@
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F111">
         <v>541611</v>
@@ -9289,7 +9283,7 @@
     </row>
     <row r="112" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B112" s="1">
         <v>8</v>
@@ -9299,7 +9293,7 @@
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F112">
         <v>541611</v>
@@ -9336,7 +9330,7 @@
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F113">
         <v>541611</v>
@@ -9373,7 +9367,7 @@
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F114">
         <v>541611</v>
@@ -9410,7 +9404,7 @@
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F115">
         <v>541611</v>
@@ -9447,7 +9441,7 @@
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F116">
         <v>541611</v>
@@ -9484,7 +9478,7 @@
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F117">
         <v>541611</v>
@@ -9521,7 +9515,7 @@
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F118">
         <v>541611</v>
@@ -9558,7 +9552,7 @@
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F119">
         <v>541611</v>
@@ -9585,7 +9579,7 @@
     </row>
     <row r="120" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B120" s="1">
         <v>8</v>
@@ -9595,7 +9589,7 @@
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F120">
         <v>541611</v>
@@ -9632,7 +9626,7 @@
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F121">
         <v>541611</v>
@@ -9669,7 +9663,7 @@
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F122">
         <v>541611</v>
@@ -9706,7 +9700,7 @@
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F123">
         <v>541611</v>
@@ -9743,7 +9737,7 @@
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F124">
         <v>541611</v>
@@ -9780,7 +9774,7 @@
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F125">
         <v>541611</v>
@@ -9815,7 +9809,7 @@
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F126">
         <v>541611</v>
@@ -9850,7 +9844,7 @@
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F127">
         <v>541611</v>
@@ -9885,7 +9879,7 @@
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F128">
         <v>541611</v>
@@ -9922,7 +9916,7 @@
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F129">
         <v>541611</v>
@@ -9959,7 +9953,7 @@
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F130">
         <v>541611</v>
@@ -9996,7 +9990,7 @@
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F131">
         <v>541611</v>
@@ -10033,7 +10027,7 @@
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F132">
         <v>541611</v>
@@ -10070,7 +10064,7 @@
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F133">
         <v>541611</v>
@@ -10107,7 +10101,7 @@
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F134">
         <v>541611</v>
@@ -10144,7 +10138,7 @@
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F135">
         <v>541611</v>
@@ -10181,7 +10175,7 @@
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F136">
         <v>541611</v>
@@ -10218,7 +10212,7 @@
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F137">
         <v>541611</v>
@@ -10255,7 +10249,7 @@
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F138">
         <v>541611</v>
@@ -10292,7 +10286,7 @@
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F139">
         <v>541611</v>
@@ -10329,7 +10323,7 @@
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F140">
         <v>541611</v>
@@ -10366,7 +10360,7 @@
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F141">
         <v>541611</v>
@@ -10403,7 +10397,7 @@
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F142">
         <v>541611</v>
@@ -10440,7 +10434,7 @@
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F143">
         <v>541611</v>
@@ -10477,7 +10471,7 @@
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F144">
         <v>541611</v>
@@ -10514,7 +10508,7 @@
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F145">
         <v>541611</v>
@@ -10541,7 +10535,7 @@
     </row>
     <row r="146" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B146" s="1">
         <v>10</v>
@@ -10551,7 +10545,7 @@
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F146">
         <v>541611</v>
@@ -10588,7 +10582,7 @@
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F147">
         <v>541611</v>
@@ -10625,7 +10619,7 @@
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F148">
         <v>541611</v>
@@ -10662,7 +10656,7 @@
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F149">
         <v>541611</v>
@@ -10689,7 +10683,7 @@
     </row>
     <row r="150" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="33" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B150" s="1">
         <v>10</v>
@@ -10699,7 +10693,7 @@
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F150">
         <v>541611</v>
@@ -10760,7 +10754,7 @@
     </row>
     <row r="152" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="33" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B152" s="1">
         <v>11</v>
@@ -10770,7 +10764,7 @@
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F152">
         <v>541612</v>
@@ -10804,7 +10798,7 @@
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F153">
         <v>541612</v>
@@ -10838,7 +10832,7 @@
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F154">
         <v>541612</v>
@@ -10906,7 +10900,7 @@
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F156">
         <v>541612</v>
@@ -10940,7 +10934,7 @@
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F157">
         <v>541612</v>
@@ -10964,7 +10958,7 @@
     </row>
     <row r="158" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="33" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B158" s="1">
         <v>11</v>
@@ -10974,7 +10968,7 @@
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F158">
         <v>541612</v>
@@ -10998,7 +10992,7 @@
     </row>
     <row r="159" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="33" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B159" s="1">
         <v>11</v>
@@ -11008,7 +11002,7 @@
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F159">
         <v>541612</v>
@@ -11134,7 +11128,7 @@
     </row>
     <row r="163" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="33" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B163" s="1">
         <v>11</v>
@@ -11144,7 +11138,7 @@
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F163">
         <v>541612</v>
@@ -11168,7 +11162,7 @@
     </row>
     <row r="164" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="33" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B164" s="1">
         <v>11</v>
@@ -11246,7 +11240,7 @@
       </c>
       <c r="D166" s="23"/>
       <c r="E166" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F166">
         <v>541612</v>
@@ -11304,7 +11298,7 @@
     </row>
     <row r="168" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B168" s="1">
         <v>12</v>
@@ -11440,7 +11434,7 @@
     </row>
     <row r="172" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B172" s="1">
         <v>12</v>
@@ -11474,7 +11468,7 @@
     </row>
     <row r="173" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="33" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B173" s="1">
         <v>12</v>
@@ -11518,7 +11512,7 @@
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F174">
         <v>541612</v>
@@ -11576,7 +11570,7 @@
     </row>
     <row r="176" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="33" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B176" s="23">
         <v>12</v>
@@ -11586,7 +11580,7 @@
       </c>
       <c r="D176" s="23"/>
       <c r="E176" s="23" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F176">
         <v>541612</v>
@@ -11654,7 +11648,7 @@
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F178">
         <v>541612</v>
@@ -11688,7 +11682,7 @@
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F179">
         <v>541612</v>
@@ -11722,7 +11716,7 @@
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F180">
         <v>541612</v>
@@ -11756,7 +11750,7 @@
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F181">
         <v>541612</v>
@@ -11790,7 +11784,7 @@
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F182">
         <v>541612</v>
@@ -11824,7 +11818,7 @@
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F183">
         <v>541612</v>
@@ -11858,7 +11852,7 @@
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F184">
         <v>541612</v>
@@ -11892,7 +11886,7 @@
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F185">
         <v>541612</v>
@@ -11926,7 +11920,7 @@
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F186">
         <v>541612</v>
@@ -11960,7 +11954,7 @@
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F187">
         <v>541612</v>
@@ -11994,7 +11988,7 @@
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F188">
         <v>541612</v>
@@ -12028,7 +12022,7 @@
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F189">
         <v>541612</v>
@@ -12062,7 +12056,7 @@
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F190">
         <v>541612</v>
@@ -12086,7 +12080,7 @@
     </row>
     <row r="191" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="33" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B191" s="1">
         <v>14</v>
@@ -12096,7 +12090,7 @@
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F191">
         <v>541612</v>
@@ -12130,7 +12124,7 @@
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F192">
         <v>541612</v>
@@ -12164,7 +12158,7 @@
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F193">
         <v>541612</v>
@@ -12198,7 +12192,7 @@
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F194">
         <v>541612</v>
@@ -12232,7 +12226,7 @@
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F195">
         <v>541612</v>
@@ -12266,7 +12260,7 @@
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F196">
         <v>541612</v>
@@ -12301,7 +12295,7 @@
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F197">
         <v>541810</v>
@@ -12338,7 +12332,7 @@
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F198">
         <v>541810</v>
@@ -12375,7 +12369,7 @@
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F199">
         <v>541810</v>
@@ -12412,7 +12406,7 @@
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F200">
         <v>541810</v>
@@ -12449,7 +12443,7 @@
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F201">
         <v>541810</v>
@@ -12486,7 +12480,7 @@
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F202">
         <v>541810</v>
@@ -12523,7 +12517,7 @@
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F203">
         <v>541810</v>
@@ -12560,7 +12554,7 @@
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F204">
         <v>541810</v>
@@ -12597,7 +12591,7 @@
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F205">
         <v>541810</v>
@@ -12634,7 +12628,7 @@
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F206">
         <v>541810</v>
@@ -12671,7 +12665,7 @@
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F207">
         <v>541810</v>
@@ -12708,7 +12702,7 @@
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F208">
         <v>541810</v>
@@ -12745,7 +12739,7 @@
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F209">
         <v>541810</v>
@@ -12782,7 +12776,7 @@
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F210">
         <v>541810</v>
@@ -12819,7 +12813,7 @@
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F211">
         <v>541810</v>
@@ -12856,7 +12850,7 @@
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F212">
         <v>541613</v>
@@ -12893,7 +12887,7 @@
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F213">
         <v>541613</v>
@@ -12930,7 +12924,7 @@
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F214">
         <v>541613</v>
@@ -12967,7 +12961,7 @@
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F215">
         <v>541613</v>
@@ -13004,7 +12998,7 @@
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F216">
         <v>541613</v>
@@ -13041,7 +13035,7 @@
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F217">
         <v>541613</v>
@@ -13078,7 +13072,7 @@
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F218">
         <v>541613</v>
@@ -13115,7 +13109,7 @@
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F219">
         <v>541613</v>
@@ -13152,7 +13146,7 @@
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F220">
         <v>541613</v>
@@ -13189,7 +13183,7 @@
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F221">
         <v>541613</v>
@@ -13226,7 +13220,7 @@
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F222">
         <v>541613</v>
@@ -13263,7 +13257,7 @@
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F223">
         <v>541613</v>
@@ -13300,7 +13294,7 @@
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F224">
         <v>541613</v>
@@ -13327,7 +13321,7 @@
     </row>
     <row r="225" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="33" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B225" s="1">
         <v>16</v>
@@ -13337,7 +13331,7 @@
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F225">
         <v>541613</v>
@@ -13374,7 +13368,7 @@
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F226">
         <v>541613</v>
@@ -13401,7 +13395,7 @@
     </row>
     <row r="227" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="33" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B227" s="1">
         <v>16</v>
@@ -13411,7 +13405,7 @@
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F227">
         <v>541613</v>
@@ -13448,7 +13442,7 @@
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F228">
         <v>541613</v>
@@ -13485,7 +13479,7 @@
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F229">
         <v>541613</v>
@@ -13522,7 +13516,7 @@
       </c>
       <c r="D230" s="23"/>
       <c r="E230" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F230">
         <v>541820</v>
@@ -13556,7 +13550,7 @@
       </c>
       <c r="D231" s="23"/>
       <c r="E231" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F231">
         <v>541820</v>
@@ -13590,7 +13584,7 @@
       </c>
       <c r="D232" s="23"/>
       <c r="E232" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F232">
         <v>541820</v>
@@ -13624,7 +13618,7 @@
       </c>
       <c r="D233" s="23"/>
       <c r="E233" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F233">
         <v>541820</v>
@@ -13658,7 +13652,7 @@
       </c>
       <c r="D234" s="23"/>
       <c r="E234" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F234">
         <v>541820</v>
@@ -13692,7 +13686,7 @@
       </c>
       <c r="D235" s="23"/>
       <c r="E235" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F235">
         <v>541820</v>
@@ -13726,7 +13720,7 @@
       </c>
       <c r="D236" s="23"/>
       <c r="E236" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F236">
         <v>541820</v>
@@ -13760,7 +13754,7 @@
       </c>
       <c r="D237" s="23"/>
       <c r="E237" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F237">
         <v>541820</v>
@@ -13794,7 +13788,7 @@
       </c>
       <c r="D238" s="23"/>
       <c r="E238" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F238">
         <v>541820</v>
@@ -13828,7 +13822,7 @@
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F239">
         <v>541511</v>
@@ -13862,7 +13856,7 @@
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F240">
         <v>541511</v>
@@ -13897,7 +13891,7 @@
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F241">
         <v>541511</v>
@@ -13931,7 +13925,7 @@
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F242">
         <v>541511</v>
@@ -13965,7 +13959,7 @@
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F243">
         <v>541511</v>
@@ -13999,7 +13993,7 @@
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F244">
         <v>541511</v>
@@ -14033,7 +14027,7 @@
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F245">
         <v>541511</v>
@@ -14067,7 +14061,7 @@
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F246">
         <v>541511</v>
@@ -14101,7 +14095,7 @@
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F247">
         <v>541511</v>
@@ -14135,7 +14129,7 @@
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F248">
         <v>541511</v>
@@ -14169,7 +14163,7 @@
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F249">
         <v>541511</v>
@@ -14203,7 +14197,7 @@
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F250">
         <v>541511</v>
@@ -14237,7 +14231,7 @@
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F251">
         <v>541511</v>
@@ -14271,7 +14265,7 @@
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F252">
         <v>541511</v>
@@ -14305,7 +14299,7 @@
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F253">
         <v>541511</v>
@@ -14339,7 +14333,7 @@
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F254">
         <v>541511</v>
@@ -14487,7 +14481,7 @@
     </row>
     <row r="259" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="33" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B259" s="1">
         <v>17</v>
@@ -14971,7 +14965,7 @@
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F277">
         <v>541620</v>
@@ -15002,7 +14996,7 @@
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F278">
         <v>541620</v>
@@ -15023,7 +15017,7 @@
     </row>
     <row r="279" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="33" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B279" s="9">
         <v>19</v>
@@ -15033,7 +15027,7 @@
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F279">
         <v>541620</v>
@@ -15054,7 +15048,7 @@
     </row>
     <row r="280" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="33" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B280" s="9">
         <v>19</v>
@@ -15064,7 +15058,7 @@
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F280">
         <v>541620</v>
@@ -15085,7 +15079,7 @@
     </row>
     <row r="281" spans="1:32" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="33" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B281" s="9">
         <v>19</v>
@@ -15095,7 +15089,7 @@
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F281">
         <v>541620</v>
@@ -15126,7 +15120,7 @@
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F282">
         <v>541620</v>
@@ -15157,7 +15151,7 @@
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F283">
         <v>541620</v>
@@ -15188,7 +15182,7 @@
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F284">
         <v>541620</v>
@@ -15219,7 +15213,7 @@
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F285">
         <v>541620</v>
@@ -15240,7 +15234,7 @@
     </row>
     <row r="286" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="33" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B286" s="9">
         <v>19</v>
@@ -15250,7 +15244,7 @@
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F286">
         <v>541620</v>
@@ -15271,7 +15265,7 @@
     </row>
     <row r="287" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="33" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B287" s="9">
         <v>19</v>
@@ -15281,7 +15275,7 @@
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F287">
         <v>541620</v>
@@ -15302,7 +15296,7 @@
     </row>
     <row r="288" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="33" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B288" s="9">
         <v>19</v>
@@ -15312,7 +15306,7 @@
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F288">
         <v>541620</v>
@@ -15343,7 +15337,7 @@
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F289">
         <v>541620</v>
@@ -15374,7 +15368,7 @@
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F290">
         <v>541620</v>
@@ -15395,7 +15389,7 @@
     </row>
     <row r="291" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="33" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B291" s="9">
         <v>19</v>
@@ -15405,7 +15399,7 @@
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F291">
         <v>541620</v>
@@ -15436,7 +15430,7 @@
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F292">
         <v>541620</v>
@@ -15457,7 +15451,7 @@
     </row>
     <row r="293" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="33" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B293" s="9">
         <v>19</v>
@@ -15467,7 +15461,7 @@
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F293">
         <v>541620</v>
@@ -15488,7 +15482,7 @@
     </row>
     <row r="294" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="33" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B294" s="9">
         <v>19</v>
@@ -15498,7 +15492,7 @@
       </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F294">
         <v>541620</v>
@@ -15529,7 +15523,7 @@
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F295">
         <v>541620</v>
@@ -15550,7 +15544,7 @@
     </row>
     <row r="296" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="33" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B296" s="9">
         <v>19</v>
@@ -15560,7 +15554,7 @@
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F296">
         <v>541620</v>
@@ -15581,7 +15575,7 @@
     </row>
     <row r="297" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="33" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B297" s="9">
         <v>19</v>
@@ -15591,7 +15585,7 @@
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F297">
         <v>541620</v>
@@ -15622,7 +15616,7 @@
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F298">
         <v>541620</v>
@@ -15653,7 +15647,7 @@
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F299">
         <v>541620</v>
@@ -15674,7 +15668,7 @@
     </row>
     <row r="300" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="33" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B300" s="9">
         <v>19</v>
@@ -15684,7 +15678,7 @@
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F300">
         <v>541620</v>
@@ -15715,7 +15709,7 @@
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F301">
         <v>541620</v>
@@ -15736,7 +15730,7 @@
     </row>
     <row r="302" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="33" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B302" s="9">
         <v>19</v>
@@ -15746,7 +15740,7 @@
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F302">
         <v>541620</v>
@@ -15777,7 +15771,7 @@
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F303">
         <v>541620</v>
@@ -15808,7 +15802,7 @@
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F304">
         <v>541620</v>
@@ -15829,7 +15823,7 @@
     </row>
     <row r="305" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="33" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B305" s="9">
         <v>19</v>
@@ -15839,7 +15833,7 @@
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F305">
         <v>541620</v>
@@ -15901,7 +15895,7 @@
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F307">
         <v>541620</v>
@@ -15932,7 +15926,7 @@
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F308">
         <v>541620</v>
@@ -15963,7 +15957,7 @@
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F309">
         <v>541620</v>
@@ -15984,7 +15978,7 @@
     </row>
     <row r="310" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="33" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B310" s="9">
         <v>19</v>
@@ -15994,7 +15988,7 @@
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F310">
         <v>541620</v>
@@ -16025,7 +16019,7 @@
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F311">
         <v>541620</v>
@@ -16056,7 +16050,7 @@
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F312">
         <v>541620</v>
@@ -16087,7 +16081,7 @@
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F313">
         <v>541620</v>
@@ -16108,7 +16102,7 @@
     </row>
     <row r="314" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="33" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B314" s="9">
         <v>19</v>
@@ -16118,7 +16112,7 @@
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F314">
         <v>541620</v>
@@ -16149,7 +16143,7 @@
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F315">
         <v>541620</v>
@@ -16180,7 +16174,7 @@
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F316">
         <v>541620</v>
@@ -16211,7 +16205,7 @@
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F317">
         <v>541620</v>
@@ -16242,7 +16236,7 @@
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F318">
         <v>541620</v>
@@ -16790,7 +16784,7 @@
     </row>
     <row r="336" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="33" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B336" s="9">
         <v>20</v>
@@ -16976,7 +16970,7 @@
     </row>
     <row r="342" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" s="33" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B342" s="9">
         <v>20</v>
@@ -17978,7 +17972,7 @@
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F374">
         <v>541614</v>
@@ -18012,7 +18006,7 @@
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F375">
         <v>541614</v>
@@ -18043,7 +18037,7 @@
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F376">
         <v>541614</v>
@@ -18077,7 +18071,7 @@
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F377">
         <v>541614</v>
@@ -18111,7 +18105,7 @@
       </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F378">
         <v>541614</v>
@@ -18145,7 +18139,7 @@
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F379">
         <v>541614</v>
@@ -18179,7 +18173,7 @@
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F380">
         <v>541614</v>
@@ -18213,7 +18207,7 @@
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F381">
         <v>541614</v>
@@ -18247,7 +18241,7 @@
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F382">
         <v>541614</v>
@@ -18281,7 +18275,7 @@
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F383">
         <v>541614</v>
@@ -18315,7 +18309,7 @@
       </c>
       <c r="D384" s="1"/>
       <c r="E384" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F384">
         <v>541614</v>
@@ -18339,7 +18333,7 @@
     </row>
     <row r="385" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="33" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B385" s="9">
         <v>21</v>
@@ -18349,7 +18343,7 @@
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F385">
         <v>541614</v>
@@ -18383,7 +18377,7 @@
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F386">
         <v>541614</v>
@@ -18417,7 +18411,7 @@
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F387">
         <v>541614</v>
@@ -18451,7 +18445,7 @@
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F388">
         <v>541614</v>
@@ -18475,7 +18469,7 @@
     </row>
     <row r="389" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" s="33" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B389" s="9">
         <v>21</v>
@@ -18485,7 +18479,7 @@
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F389">
         <v>541614</v>
@@ -18519,7 +18513,7 @@
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F390">
         <v>541614</v>
@@ -18553,7 +18547,7 @@
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F391">
         <v>541614</v>
@@ -18587,7 +18581,7 @@
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F392">
         <v>541614</v>
@@ -18621,7 +18615,7 @@
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F393">
         <v>541614</v>
@@ -18655,7 +18649,7 @@
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F394">
         <v>541614</v>
@@ -18689,7 +18683,7 @@
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F395">
         <v>541614</v>
@@ -18723,7 +18717,7 @@
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F396">
         <v>541614</v>
@@ -18757,7 +18751,7 @@
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F397">
         <v>541614</v>
@@ -18791,7 +18785,7 @@
       </c>
       <c r="D398" s="1"/>
       <c r="E398" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F398">
         <v>541614</v>
@@ -18825,7 +18819,7 @@
       </c>
       <c r="D399" s="1"/>
       <c r="E399" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F399">
         <v>541614</v>
@@ -18859,7 +18853,7 @@
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F400">
         <v>541614</v>
@@ -18893,7 +18887,7 @@
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F401">
         <v>541614</v>
@@ -18927,7 +18921,7 @@
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F402">
         <v>541614</v>
@@ -18961,7 +18955,7 @@
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F403">
         <v>541614</v>
@@ -18995,7 +18989,7 @@
       </c>
       <c r="D404" s="1"/>
       <c r="E404" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F404">
         <v>541614</v>
@@ -19991,7 +19985,7 @@
     </row>
     <row r="439" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A439" s="33" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B439" s="9">
         <v>23</v>
@@ -20147,7 +20141,7 @@
     </row>
     <row r="445" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A445" s="33" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B445" s="9">
         <v>23</v>
@@ -20303,7 +20297,7 @@
     </row>
     <row r="451" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A451" s="33" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B451" s="9">
         <v>23</v>
@@ -20329,7 +20323,7 @@
     </row>
     <row r="452" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A452" s="33" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B452" s="24">
         <v>23</v>
@@ -20929,7 +20923,7 @@
     </row>
     <row r="474" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A474" s="33" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B474" s="9">
         <v>25</v>
@@ -21161,7 +21155,7 @@
     </row>
     <row r="482" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A482" s="33" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B482" s="9">
         <v>25</v>
@@ -21219,7 +21213,7 @@
     </row>
     <row r="484" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A484" s="33" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B484" s="9">
         <v>25</v>
@@ -23574,7 +23568,7 @@
     </row>
     <row r="572" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A572" s="33" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B572" s="15">
         <v>29</v>
@@ -23682,7 +23676,7 @@
     </row>
     <row r="576" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A576" s="33" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B576" s="15">
         <v>29</v>
@@ -23709,7 +23703,7 @@
     </row>
     <row r="577" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A577" s="33" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B577" s="15">
         <v>29</v>
@@ -24643,7 +24637,7 @@
     </row>
     <row r="614" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A614" s="33" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B614" s="22">
         <v>34</v>
@@ -24988,7 +24982,7 @@
     </row>
     <row r="629" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A629" s="33" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B629" s="32">
         <v>36</v>
@@ -25770,7 +25764,7 @@
     </row>
     <row r="663" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A663" s="33" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B663" s="38">
         <v>39</v>
@@ -26060,7 +26054,7 @@
     </row>
     <row r="674" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A674" s="33" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B674" s="40">
         <v>42</v>
@@ -26087,7 +26081,7 @@
     </row>
     <row r="675" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A675" s="33" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B675" s="40">
         <v>42</v>
@@ -27815,7 +27809,7 @@
     </row>
     <row r="739" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A739" s="33" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B739" s="40">
         <v>45</v>
@@ -28004,7 +27998,7 @@
     </row>
     <row r="746" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A746" s="33" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B746" s="40">
         <v>46</v>
@@ -28031,7 +28025,7 @@
     </row>
     <row r="747" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A747" s="33" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B747" s="40">
         <v>46</v>
@@ -28085,7 +28079,7 @@
     </row>
     <row r="749" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A749" s="33" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B749" s="40">
         <v>46</v>
@@ -28112,7 +28106,7 @@
     </row>
     <row r="750" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A750" s="33" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B750" s="40">
         <v>46</v>
@@ -28139,7 +28133,7 @@
     </row>
     <row r="751" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A751" s="33" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B751" s="40">
         <v>46</v>
@@ -28193,7 +28187,7 @@
     </row>
     <row r="753" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A753" s="33" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B753" s="40">
         <v>46</v>
@@ -28268,7 +28262,7 @@
     </row>
     <row r="756" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A756" s="33" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B756" s="40">
         <v>47</v>
@@ -28352,7 +28346,7 @@
     </row>
     <row r="760" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A760" s="33" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B760" s="40">
         <v>47</v>
@@ -28520,7 +28514,7 @@
     </row>
     <row r="768" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A768" s="33" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B768" s="40">
         <v>48</v>
@@ -29192,7 +29186,7 @@
     </row>
     <row r="800" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A800" s="33" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B800" s="40">
         <v>55</v>
@@ -29213,7 +29207,7 @@
     </row>
     <row r="801" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A801" s="33" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B801" s="40">
         <v>55</v>
@@ -29276,7 +29270,7 @@
     </row>
     <row r="804" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A804" s="33" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B804" s="40">
         <v>55</v>
@@ -29372,7 +29366,7 @@
     </row>
     <row r="808" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A808" s="33" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B808">
         <v>56</v>
@@ -29438,7 +29432,7 @@
     </row>
     <row r="810" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A810" s="33" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B810">
         <v>56</v>
@@ -29537,7 +29531,7 @@
     </row>
     <row r="813" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A813" s="33" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B813">
         <v>56</v>
@@ -29636,7 +29630,7 @@
     </row>
     <row r="816" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A816" s="33" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B816">
         <v>56</v>
@@ -33374,46 +33368,54 @@
       </c>
     </row>
     <row r="998" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A998" s="45" t="s">
-        <v>1273</v>
+      <c r="A998" s="80" t="s">
+        <v>848</v>
       </c>
       <c r="B998" s="35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C998" s="2" t="s">
-        <v>1239</v>
+        <v>1254</v>
       </c>
       <c r="F998">
-        <v>561730</v>
-      </c>
-      <c r="AQ998" s="3"/>
-      <c r="AR998" s="3"/>
+        <v>236220</v>
+      </c>
+      <c r="BA998" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB998" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="999" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A999" s="45" t="s">
-        <v>1274</v>
+      <c r="A999" s="83" t="s">
+        <v>1245</v>
       </c>
       <c r="B999" s="35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C999" s="2" t="s">
-        <v>1239</v>
+        <v>1254</v>
       </c>
       <c r="F999">
-        <v>561730</v>
-      </c>
-      <c r="AQ999" s="3"/>
-      <c r="AR999" s="3"/>
+        <v>236220</v>
+      </c>
+      <c r="BA999" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB999" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="1000" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A1000" s="80" t="s">
-        <v>848</v>
+      <c r="A1000" s="83" t="s">
+        <v>1246</v>
       </c>
       <c r="B1000" s="35">
         <v>76</v>
       </c>
       <c r="C1000" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="F1000">
         <v>236220</v>
@@ -33427,13 +33429,13 @@
     </row>
     <row r="1001" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1001" s="83" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="B1001" s="35">
         <v>76</v>
       </c>
       <c r="C1001" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="F1001">
         <v>236220</v>
@@ -33447,13 +33449,13 @@
     </row>
     <row r="1002" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1002" s="83" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B1002" s="35">
         <v>76</v>
       </c>
       <c r="C1002" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F1002">
         <v>236220</v>
@@ -33467,13 +33469,13 @@
     </row>
     <row r="1003" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1003" s="83" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B1003" s="35">
         <v>76</v>
       </c>
       <c r="C1003" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F1003">
         <v>236220</v>
@@ -33487,7 +33489,7 @@
     </row>
     <row r="1004" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1004" s="83" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B1004" s="35">
         <v>76</v>
@@ -33507,7 +33509,7 @@
     </row>
     <row r="1005" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1005" s="83" t="s">
-        <v>1249</v>
+        <v>1256</v>
       </c>
       <c r="B1005" s="35">
         <v>76</v>
@@ -33527,7 +33529,7 @@
     </row>
     <row r="1006" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1006" s="83" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B1006" s="35">
         <v>76</v>
@@ -33547,7 +33549,7 @@
     </row>
     <row r="1007" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1007" s="83" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B1007" s="35">
         <v>76</v>
@@ -33567,7 +33569,7 @@
     </row>
     <row r="1008" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1008" s="83" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="B1008" s="35">
         <v>76</v>
@@ -33586,48 +33588,48 @@
       </c>
     </row>
     <row r="1009" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A1009" s="83" t="s">
-        <v>1252</v>
+      <c r="A1009" s="80" t="s">
+        <v>852</v>
       </c>
       <c r="B1009" s="35">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1009" s="2" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="F1009">
-        <v>236220</v>
-      </c>
-      <c r="BA1009" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB1009" s="3" t="s">
+        <v>561710</v>
+      </c>
+      <c r="BI1009" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ1009" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="1010" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1010" s="83" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="B1010" s="35">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1010" s="2" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="F1010">
-        <v>236220</v>
-      </c>
-      <c r="BA1010" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB1010" s="3" t="s">
+        <v>561710</v>
+      </c>
+      <c r="BI1010" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ1010" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="1011" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A1011" s="80" t="s">
-        <v>852</v>
+      <c r="A1011" s="83" t="s">
+        <v>1259</v>
       </c>
       <c r="B1011" s="35">
         <v>77</v>
@@ -33647,7 +33649,7 @@
     </row>
     <row r="1012" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1012" s="83" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B1012" s="35">
         <v>77</v>
@@ -33667,7 +33669,7 @@
     </row>
     <row r="1013" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1013" s="83" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="B1013" s="35">
         <v>77</v>
@@ -33687,7 +33689,7 @@
     </row>
     <row r="1014" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1014" s="83" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B1014" s="35">
         <v>77</v>
@@ -33707,7 +33709,7 @@
     </row>
     <row r="1015" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1015" s="83" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="B1015" s="35">
         <v>77</v>
@@ -33727,7 +33729,7 @@
     </row>
     <row r="1016" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1016" s="83" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="B1016" s="35">
         <v>77</v>
@@ -33746,48 +33748,48 @@
       </c>
     </row>
     <row r="1017" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A1017" s="83" t="s">
-        <v>1263</v>
+      <c r="A1017" s="80" t="s">
+        <v>853</v>
       </c>
       <c r="B1017" s="35">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1017" s="2" t="s">
-        <v>1257</v>
+        <v>1232</v>
       </c>
       <c r="F1017">
-        <v>561710</v>
-      </c>
-      <c r="BI1017" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BJ1017" s="3" t="s">
+        <v>562111</v>
+      </c>
+      <c r="BK1017" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL1017" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="1018" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1018" s="83" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B1018" s="35">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1018" s="2" t="s">
-        <v>1257</v>
+        <v>1232</v>
       </c>
       <c r="F1018">
-        <v>561710</v>
-      </c>
-      <c r="BI1018" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BJ1018" s="3" t="s">
+        <v>562111</v>
+      </c>
+      <c r="BK1018" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL1018" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="1019" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A1019" s="80" t="s">
-        <v>853</v>
+      <c r="A1019" s="83" t="s">
+        <v>1267</v>
       </c>
       <c r="B1019" s="35">
         <v>78</v>
@@ -33807,7 +33809,7 @@
     </row>
     <row r="1020" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1020" s="83" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B1020" s="35">
         <v>78</v>
@@ -33826,48 +33828,48 @@
       </c>
     </row>
     <row r="1021" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A1021" s="83" t="s">
-        <v>1267</v>
+      <c r="A1021" s="87" t="s">
+        <v>1268</v>
       </c>
       <c r="B1021" s="35">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1021" s="2" t="s">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="F1021">
-        <v>562111</v>
-      </c>
-      <c r="BK1021" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BL1021" s="3" t="s">
+        <v>561730</v>
+      </c>
+      <c r="BM1021" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN1021" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="1022" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1022" s="83" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="B1022" s="35">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1022" s="2" t="s">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="F1022">
-        <v>562111</v>
-      </c>
-      <c r="BK1022" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BL1022" s="3" t="s">
+        <v>561730</v>
+      </c>
+      <c r="BM1022" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN1022" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="1023" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A1023" s="87" t="s">
-        <v>1268</v>
+      <c r="A1023" s="83" t="s">
+        <v>1270</v>
       </c>
       <c r="B1023" s="35">
         <v>79</v>
@@ -33887,7 +33889,7 @@
     </row>
     <row r="1024" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1024" s="83" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B1024" s="35">
         <v>79</v>
@@ -33907,7 +33909,7 @@
     </row>
     <row r="1025" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1025" s="83" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B1025" s="35">
         <v>79</v>
@@ -33926,47 +33928,87 @@
       </c>
     </row>
     <row r="1026" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="A1026" s="83" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B1026" s="35">
-        <v>79</v>
-      </c>
-      <c r="C1026" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F1026">
-        <v>561730</v>
-      </c>
-      <c r="BM1026" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN1026" s="3" t="s">
+      <c r="A1026" s="90" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1026" s="91">
+        <v>80</v>
+      </c>
+      <c r="C1026" s="91"/>
+      <c r="D1026" s="91"/>
+      <c r="E1026" s="91" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F1026" s="91">
+        <v>518210</v>
+      </c>
+      <c r="G1026" s="91"/>
+      <c r="BO1026" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP1026" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ1026" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR1026" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS1026" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT1026" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU1026" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BV1026" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW1026" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX1026" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY1026" s="91" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="1027" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="A1027" s="83" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B1027" s="35">
-        <v>79</v>
-      </c>
-      <c r="C1027" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F1027">
-        <v>561730</v>
-      </c>
-      <c r="BM1027" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN1027" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="A1027" s="91" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1027" s="91">
+        <v>80</v>
+      </c>
+      <c r="C1027" s="91"/>
+      <c r="D1027" s="91"/>
+      <c r="E1027" s="91" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F1027" s="91">
+        <v>518210</v>
+      </c>
+      <c r="G1027" s="91"/>
+      <c r="BO1027" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP1027" s="91"/>
+      <c r="BQ1027" s="91"/>
+      <c r="BR1027" s="91"/>
+      <c r="BS1027" s="91"/>
+      <c r="BT1027" s="91"/>
+      <c r="BU1027" s="91"/>
+      <c r="BV1027" s="91"/>
+      <c r="BW1027" s="91"/>
+      <c r="BX1027" s="91"/>
+      <c r="BY1027" s="91"/>
     </row>
     <row r="1028" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="A1028" s="90" t="s">
+      <c r="A1028" s="91" t="s">
         <v>1370</v>
       </c>
       <c r="B1028" s="91">
@@ -33975,45 +34017,25 @@
       <c r="C1028" s="91"/>
       <c r="D1028" s="91"/>
       <c r="E1028" s="91" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F1028" s="91">
         <v>518210</v>
       </c>
       <c r="G1028" s="91"/>
-      <c r="BO1028" s="91" t="s">
-        <v>105</v>
-      </c>
+      <c r="BO1028" s="91"/>
       <c r="BP1028" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="BQ1028" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="BR1028" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="BS1028" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="BT1028" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU1028" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="BV1028" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="BW1028" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="BX1028" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY1028" s="91" t="s">
-        <v>105</v>
-      </c>
+      <c r="BQ1028" s="91"/>
+      <c r="BR1028" s="91"/>
+      <c r="BS1028" s="91"/>
+      <c r="BT1028" s="91"/>
+      <c r="BU1028" s="91"/>
+      <c r="BV1028" s="91"/>
+      <c r="BW1028" s="91"/>
+      <c r="BX1028" s="91"/>
+      <c r="BY1028" s="91"/>
     </row>
     <row r="1029" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1029" s="91" t="s">
@@ -34025,17 +34047,17 @@
       <c r="C1029" s="91"/>
       <c r="D1029" s="91"/>
       <c r="E1029" s="91" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F1029" s="91">
         <v>518210</v>
       </c>
       <c r="G1029" s="91"/>
-      <c r="BO1029" s="92" t="s">
-        <v>105</v>
-      </c>
+      <c r="BO1029" s="91"/>
       <c r="BP1029" s="91"/>
-      <c r="BQ1029" s="91"/>
+      <c r="BQ1029" s="91" t="s">
+        <v>105</v>
+      </c>
       <c r="BR1029" s="91"/>
       <c r="BS1029" s="91"/>
       <c r="BT1029" s="91"/>
@@ -34055,18 +34077,18 @@
       <c r="C1030" s="91"/>
       <c r="D1030" s="91"/>
       <c r="E1030" s="91" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F1030" s="91">
         <v>518210</v>
       </c>
       <c r="G1030" s="91"/>
       <c r="BO1030" s="91"/>
-      <c r="BP1030" s="91" t="s">
-        <v>105</v>
-      </c>
+      <c r="BP1030" s="91"/>
       <c r="BQ1030" s="91"/>
-      <c r="BR1030" s="91"/>
+      <c r="BR1030" s="91" t="s">
+        <v>105</v>
+      </c>
       <c r="BS1030" s="91"/>
       <c r="BT1030" s="91"/>
       <c r="BU1030" s="91"/>
@@ -34085,7 +34107,7 @@
       <c r="C1031" s="91"/>
       <c r="D1031" s="91"/>
       <c r="E1031" s="91" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F1031" s="91">
         <v>518210</v>
@@ -34093,11 +34115,11 @@
       <c r="G1031" s="91"/>
       <c r="BO1031" s="91"/>
       <c r="BP1031" s="91"/>
-      <c r="BQ1031" s="91" t="s">
-        <v>105</v>
-      </c>
+      <c r="BQ1031" s="91"/>
       <c r="BR1031" s="91"/>
-      <c r="BS1031" s="91"/>
+      <c r="BS1031" s="91" t="s">
+        <v>105</v>
+      </c>
       <c r="BT1031" s="91"/>
       <c r="BU1031" s="91"/>
       <c r="BV1031" s="91"/>
@@ -34115,7 +34137,7 @@
       <c r="C1032" s="91"/>
       <c r="D1032" s="91"/>
       <c r="E1032" s="91" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F1032" s="91">
         <v>518210</v>
@@ -34124,11 +34146,11 @@
       <c r="BO1032" s="91"/>
       <c r="BP1032" s="91"/>
       <c r="BQ1032" s="91"/>
-      <c r="BR1032" s="91" t="s">
-        <v>105</v>
-      </c>
+      <c r="BR1032" s="91"/>
       <c r="BS1032" s="91"/>
-      <c r="BT1032" s="91"/>
+      <c r="BT1032" s="91" t="s">
+        <v>105</v>
+      </c>
       <c r="BU1032" s="91"/>
       <c r="BV1032" s="91"/>
       <c r="BW1032" s="91"/>
@@ -34145,7 +34167,7 @@
       <c r="C1033" s="91"/>
       <c r="D1033" s="91"/>
       <c r="E1033" s="91" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F1033" s="91">
         <v>518210</v>
@@ -34155,11 +34177,11 @@
       <c r="BP1033" s="91"/>
       <c r="BQ1033" s="91"/>
       <c r="BR1033" s="91"/>
-      <c r="BS1033" s="91" t="s">
-        <v>105</v>
-      </c>
+      <c r="BS1033" s="91"/>
       <c r="BT1033" s="91"/>
-      <c r="BU1033" s="91"/>
+      <c r="BU1033" s="91" t="s">
+        <v>105</v>
+      </c>
       <c r="BV1033" s="91"/>
       <c r="BW1033" s="91"/>
       <c r="BX1033" s="91"/>
@@ -34175,7 +34197,7 @@
       <c r="C1034" s="91"/>
       <c r="D1034" s="91"/>
       <c r="E1034" s="91" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F1034" s="91">
         <v>518210</v>
@@ -34186,11 +34208,11 @@
       <c r="BQ1034" s="91"/>
       <c r="BR1034" s="91"/>
       <c r="BS1034" s="91"/>
-      <c r="BT1034" s="91" t="s">
-        <v>105</v>
-      </c>
+      <c r="BT1034" s="91"/>
       <c r="BU1034" s="91"/>
-      <c r="BV1034" s="91"/>
+      <c r="BV1034" s="91" t="s">
+        <v>105</v>
+      </c>
       <c r="BW1034" s="91"/>
       <c r="BX1034" s="91"/>
       <c r="BY1034" s="91"/>
@@ -34205,7 +34227,7 @@
       <c r="C1035" s="91"/>
       <c r="D1035" s="91"/>
       <c r="E1035" s="91" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F1035" s="91">
         <v>518210</v>
@@ -34217,11 +34239,11 @@
       <c r="BR1035" s="91"/>
       <c r="BS1035" s="91"/>
       <c r="BT1035" s="91"/>
-      <c r="BU1035" s="91" t="s">
-        <v>105</v>
-      </c>
+      <c r="BU1035" s="91"/>
       <c r="BV1035" s="91"/>
-      <c r="BW1035" s="91"/>
+      <c r="BW1035" s="91" t="s">
+        <v>105</v>
+      </c>
       <c r="BX1035" s="91"/>
       <c r="BY1035" s="91"/>
     </row>
@@ -34235,7 +34257,7 @@
       <c r="C1036" s="91"/>
       <c r="D1036" s="91"/>
       <c r="E1036" s="91" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F1036" s="91">
         <v>518210</v>
@@ -34248,11 +34270,11 @@
       <c r="BS1036" s="91"/>
       <c r="BT1036" s="91"/>
       <c r="BU1036" s="91"/>
-      <c r="BV1036" s="91" t="s">
-        <v>105</v>
-      </c>
+      <c r="BV1036" s="91"/>
       <c r="BW1036" s="91"/>
-      <c r="BX1036" s="91"/>
+      <c r="BX1036" s="91" t="s">
+        <v>105</v>
+      </c>
       <c r="BY1036" s="91"/>
     </row>
     <row r="1037" spans="1:77" x14ac:dyDescent="0.2">
@@ -34265,7 +34287,7 @@
       <c r="C1037" s="91"/>
       <c r="D1037" s="91"/>
       <c r="E1037" s="91" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F1037" s="91">
         <v>518210</v>
@@ -34279,69 +34301,9 @@
       <c r="BT1037" s="91"/>
       <c r="BU1037" s="91"/>
       <c r="BV1037" s="91"/>
-      <c r="BW1037" s="91" t="s">
-        <v>105</v>
-      </c>
+      <c r="BW1037" s="91"/>
       <c r="BX1037" s="91"/>
-      <c r="BY1037" s="91"/>
-    </row>
-    <row r="1038" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="A1038" s="91" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B1038" s="91">
-        <v>80</v>
-      </c>
-      <c r="C1038" s="91"/>
-      <c r="D1038" s="91"/>
-      <c r="E1038" s="91" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F1038" s="91">
-        <v>518210</v>
-      </c>
-      <c r="G1038" s="91"/>
-      <c r="BO1038" s="91"/>
-      <c r="BP1038" s="91"/>
-      <c r="BQ1038" s="91"/>
-      <c r="BR1038" s="91"/>
-      <c r="BS1038" s="91"/>
-      <c r="BT1038" s="91"/>
-      <c r="BU1038" s="91"/>
-      <c r="BV1038" s="91"/>
-      <c r="BW1038" s="91"/>
-      <c r="BX1038" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY1038" s="91"/>
-    </row>
-    <row r="1039" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="A1039" s="91" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B1039" s="91">
-        <v>80</v>
-      </c>
-      <c r="C1039" s="91"/>
-      <c r="D1039" s="91"/>
-      <c r="E1039" s="91" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F1039" s="91">
-        <v>518210</v>
-      </c>
-      <c r="G1039" s="91"/>
-      <c r="BO1039" s="91"/>
-      <c r="BP1039" s="91"/>
-      <c r="BQ1039" s="91"/>
-      <c r="BR1039" s="91"/>
-      <c r="BS1039" s="91"/>
-      <c r="BT1039" s="91"/>
-      <c r="BU1039" s="91"/>
-      <c r="BV1039" s="91"/>
-      <c r="BW1039" s="91"/>
-      <c r="BX1039" s="91"/>
-      <c r="BY1039" s="91" t="s">
+      <c r="BY1037" s="91" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34349,10 +34311,10 @@
   <sortState ref="A2:BN29">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="A1040:A1048576 A817:A1027 A2:A464 A503:A664">
+  <conditionalFormatting sqref="A1038:A1048576 A817:A1025 A2:A464 A503:A664">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1040:A1048576 A2:A1027">
+  <conditionalFormatting sqref="A1038:A1048576 A2:A1025">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A976:A993">
@@ -34615,7 +34577,7 @@
         <v>611699</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>1102</v>
@@ -34691,7 +34653,7 @@
         <v>1063</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>1079</v>
@@ -34717,7 +34679,7 @@
         <v>1063</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>1078</v>
@@ -34743,10 +34705,10 @@
         <v>624310</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>1082</v>
@@ -34772,10 +34734,10 @@
         <v>611430</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>1079</v>
@@ -34798,10 +34760,10 @@
         <v>541612</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>1080</v>
@@ -34824,10 +34786,10 @@
         <v>541611</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>1079</v>
@@ -34856,10 +34818,10 @@
         <v>541611</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>1081</v>
@@ -34888,10 +34850,10 @@
         <v>541611</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>1079</v>
@@ -34926,7 +34888,7 @@
         <v>541612</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>1066</v>
@@ -34958,7 +34920,7 @@
         <v>541612</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>1066</v>
@@ -34993,7 +34955,7 @@
         <v>1062</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>1082</v>
@@ -35022,10 +34984,10 @@
         <v>541612</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1083</v>
@@ -35057,7 +35019,7 @@
         <v>989</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>1084</v>
@@ -35089,7 +35051,7 @@
         <v>991</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>1079</v>
@@ -35174,10 +35136,10 @@
         <v>611710</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>1077</v>
@@ -35234,10 +35196,10 @@
         <v>541620</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1079</v>
@@ -35292,7 +35254,7 @@
         <v>1099</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>1088</v>
@@ -35408,7 +35370,7 @@
         <v>979</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1087</v>
@@ -35460,7 +35422,7 @@
         <v>986</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F26" s="37" t="s">
         <v>1083</v>
@@ -35643,7 +35605,7 @@
         <v>601</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>1085</v>
@@ -35668,7 +35630,7 @@
         <v>614</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>1084</v>
@@ -35693,7 +35655,7 @@
         <v>630</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>1089</v>
@@ -35718,7 +35680,7 @@
         <v>631</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>1084</v>
@@ -35743,7 +35705,7 @@
         <v>692</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>1084</v>
@@ -35768,7 +35730,7 @@
         <v>693</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>1090</v>
@@ -35793,7 +35755,7 @@
         <v>694</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>1091</v>
@@ -35818,7 +35780,7 @@
         <v>695</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F40" s="45" t="s">
         <v>1079</v>
@@ -35841,7 +35803,7 @@
         <v>979</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>1086</v>
@@ -35925,7 +35887,7 @@
         <v>699</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>1092</v>
@@ -35948,7 +35910,7 @@
         <v>701</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>1092</v>
@@ -35971,7 +35933,7 @@
         <v>382</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F44" s="48" t="s">
         <v>1092</v>
@@ -35992,7 +35954,7 @@
         <v>703</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F45" s="48" t="s">
         <v>1092</v>
@@ -36015,7 +35977,7 @@
         <v>705</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>1092</v>
@@ -36038,7 +36000,7 @@
         <v>712</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F47" s="45" t="s">
         <v>1083</v>
@@ -36067,7 +36029,7 @@
         <v>709</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F48" s="45" t="s">
         <v>1083</v>
@@ -36096,7 +36058,7 @@
         <v>710</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F49" s="45" t="s">
         <v>1093</v>
@@ -36125,7 +36087,7 @@
         <v>708</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F50" s="45" t="s">
         <v>1094</v>
@@ -36154,7 +36116,7 @@
         <v>715</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F51" s="45" t="s">
         <v>1083</v>
@@ -36183,7 +36145,7 @@
         <v>717</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F52" s="45" t="s">
         <v>1083</v>
@@ -36206,7 +36168,7 @@
         <v>987</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F53" s="42" t="s">
         <v>1077</v>
@@ -36243,7 +36205,7 @@
         <v>978</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F54" s="42" t="s">
         <v>1077</v>
@@ -36350,7 +36312,7 @@
         <v>988</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F56" s="45" t="s">
         <v>1095</v>
@@ -36521,7 +36483,7 @@
         <v>1097</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F62" s="45" t="s">
         <v>1094</v>
@@ -36824,7 +36786,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B80" s="35">
         <v>80</v>
